--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5317" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="2283">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10552,6 +10552,18 @@
   </si>
   <si>
     <t>劳动先锋榜--非cjj</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_xxl_rate_add</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐倍数和任务领奖类型活动权限（冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>消消乐倍数和任务领奖类型活动权限</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16338,13 +16350,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O397"/>
+  <dimension ref="A1:O398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D398" sqref="D398"/>
+      <selection pane="bottomRight" activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29764,6 +29776,38 @@
       </c>
       <c r="L397" s="25" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
+      <c r="A398" s="25">
+        <v>397</v>
+      </c>
+      <c r="B398" s="25">
+        <v>1</v>
+      </c>
+      <c r="C398" s="25" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D398" s="25" t="s">
+        <v>2281</v>
+      </c>
+      <c r="G398" s="25">
+        <v>427</v>
+      </c>
+      <c r="H398" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I398" t="b">
+        <v>1</v>
+      </c>
+      <c r="J398" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="K398" s="25">
+        <v>1619452800</v>
+      </c>
+      <c r="L398" s="25" t="s">
+        <v>2282</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="2283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5339" uniqueCount="2290">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10264,10 +10264,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>道具兑换（VIP5，非冲金鸡）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>now</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10564,6 +10560,38 @@
   </si>
   <si>
     <t>消消乐倍数和任务领奖类型活动权限</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_prop_exchange_nor_v3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP5，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP4，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具兑换（VIP3，非冲金鸡）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3及以上玩家</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>now</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16254,10 +16282,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="26" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B473" s="26" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C473" s="2">
         <v>410</v>
@@ -16309,10 +16337,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="C483" s="2">
         <v>432</v>
@@ -16320,10 +16348,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C486" s="2">
         <v>433</v>
@@ -16331,10 +16359,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="C487" s="2">
         <v>434</v>
@@ -16350,13 +16378,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O398"/>
+  <dimension ref="A1:O400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G366" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="I372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A398" sqref="A398"/>
+      <selection pane="bottomRight" activeCell="L399" sqref="L399:L400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -28912,10 +28940,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
+        <v>2277</v>
+      </c>
+      <c r="D372" s="65" t="s">
         <v>2278</v>
-      </c>
-      <c r="D372" s="65" t="s">
-        <v>2279</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -29503,7 +29531,7 @@
         <v>1618243200</v>
       </c>
       <c r="L389" s="109" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="390" spans="1:12" s="112" customFormat="1">
@@ -29517,7 +29545,7 @@
         <v>2234</v>
       </c>
       <c r="D390" s="109" t="s">
-        <v>2235</v>
+        <v>2284</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29531,13 +29559,13 @@
         <v>1</v>
       </c>
       <c r="J390" s="109" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="K390" s="110">
         <v>1618243200</v>
       </c>
       <c r="L390" s="109" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="391" spans="1:12" s="116" customFormat="1">
@@ -29548,10 +29576,10 @@
         <v>1</v>
       </c>
       <c r="C391" s="114" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="D391" s="114" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="E391" s="113"/>
       <c r="F391" s="113"/>
@@ -29565,13 +29593,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="114" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="K391" s="113">
         <v>1618272000</v>
       </c>
       <c r="L391" s="114" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="116" customFormat="1">
@@ -29582,10 +29610,10 @@
         <v>1</v>
       </c>
       <c r="C392" s="113" t="s">
+        <v>2240</v>
+      </c>
+      <c r="D392" s="113" t="s">
         <v>2241</v>
-      </c>
-      <c r="D392" s="113" t="s">
-        <v>2242</v>
       </c>
       <c r="E392" s="113"/>
       <c r="F392" s="113"/>
@@ -29605,7 +29633,7 @@
         <v>1618272000</v>
       </c>
       <c r="L392" s="114" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="393" spans="1:12" s="112" customFormat="1">
@@ -29616,10 +29644,10 @@
         <v>1</v>
       </c>
       <c r="C393" s="109" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="D393" s="109" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="E393" s="110"/>
       <c r="F393" s="110"/>
@@ -29633,13 +29661,13 @@
         <v>1</v>
       </c>
       <c r="J393" s="109" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="K393" s="110">
         <v>1618243200</v>
       </c>
       <c r="L393" s="109" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="394" spans="1:12" s="112" customFormat="1">
@@ -29650,10 +29678,10 @@
         <v>1</v>
       </c>
       <c r="C394" s="109" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="D394" s="109" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="E394" s="110"/>
       <c r="F394" s="110"/>
@@ -29667,13 +29695,13 @@
         <v>1</v>
       </c>
       <c r="J394" s="109" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="K394" s="110">
         <v>1618243200</v>
       </c>
       <c r="L394" s="109" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="112" customFormat="1">
@@ -29684,10 +29712,10 @@
         <v>1</v>
       </c>
       <c r="C395" s="109" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="D395" s="109" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="E395" s="110"/>
       <c r="F395" s="110"/>
@@ -29707,7 +29735,7 @@
         <v>1618243200</v>
       </c>
       <c r="L395" s="109" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="396" spans="1:12" s="112" customFormat="1">
@@ -29718,10 +29746,10 @@
         <v>1</v>
       </c>
       <c r="C396" s="109" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="D396" s="109" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="E396" s="110"/>
       <c r="F396" s="110"/>
@@ -29741,7 +29769,7 @@
         <v>1618243200</v>
       </c>
       <c r="L396" s="109" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="21" customFormat="1">
@@ -29752,10 +29780,10 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D397" s="15" t="s">
         <v>2260</v>
-      </c>
-      <c r="D397" s="15" t="s">
-        <v>2261</v>
       </c>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
@@ -29786,10 +29814,10 @@
         <v>1</v>
       </c>
       <c r="C398" s="25" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D398" s="25" t="s">
         <v>2280</v>
-      </c>
-      <c r="D398" s="25" t="s">
-        <v>2281</v>
       </c>
       <c r="G398" s="25">
         <v>427</v>
@@ -29807,7 +29835,71 @@
         <v>1619452800</v>
       </c>
       <c r="L398" s="25" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
+      <c r="A399" s="25">
+        <v>398</v>
+      </c>
+      <c r="B399" s="25">
+        <v>1</v>
+      </c>
+      <c r="C399" s="25" t="s">
         <v>2282</v>
+      </c>
+      <c r="D399" s="25" t="s">
+        <v>2285</v>
+      </c>
+      <c r="G399" s="25">
+        <v>428</v>
+      </c>
+      <c r="H399" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I399" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399" s="25" t="s">
+        <v>2288</v>
+      </c>
+      <c r="K399" s="25">
+        <v>1619481600</v>
+      </c>
+      <c r="L399" s="109" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
+      <c r="A400" s="25">
+        <v>399</v>
+      </c>
+      <c r="B400" s="25">
+        <v>1</v>
+      </c>
+      <c r="C400" s="25" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D400" s="25" t="s">
+        <v>2286</v>
+      </c>
+      <c r="G400" s="25">
+        <v>429</v>
+      </c>
+      <c r="H400" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I400" t="b">
+        <v>1</v>
+      </c>
+      <c r="J400" s="25" t="s">
+        <v>2289</v>
+      </c>
+      <c r="K400" s="25">
+        <v>1619481600</v>
+      </c>
+      <c r="L400" s="109" t="s">
+        <v>2236</v>
       </c>
     </row>
   </sheetData>
@@ -29821,13 +29913,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1050"/>
+  <dimension ref="A1:I1054"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C949" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1024" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B970" sqref="B970:G970"/>
+      <selection pane="bottomRight" activeCell="C1056" sqref="C1056"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -53707,7 +53799,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="48" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -54604,7 +54696,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54650,7 +54742,7 @@
         <v>1</v>
       </c>
       <c r="G1039" s="96" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1040" spans="1:7">
@@ -54661,7 +54753,7 @@
         <v>428</v>
       </c>
       <c r="C1040" s="92" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D1040" s="91">
         <v>3</v>
@@ -54673,7 +54765,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="92" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1041" spans="1:7">
@@ -54707,7 +54799,7 @@
         <v>429</v>
       </c>
       <c r="C1042" s="92" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D1042" s="91">
         <v>4</v>
@@ -54719,7 +54811,7 @@
         <v>1</v>
       </c>
       <c r="G1042" s="92" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1043" spans="1:7">
@@ -54753,7 +54845,7 @@
         <v>430</v>
       </c>
       <c r="C1044" s="92" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D1044" s="91">
         <v>3</v>
@@ -54765,7 +54857,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1045" spans="1:7">
@@ -54788,7 +54880,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="92" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1046" spans="1:7">
@@ -54799,7 +54891,7 @@
         <v>431</v>
       </c>
       <c r="C1046" s="92" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="D1046" s="91">
         <v>4</v>
@@ -54811,7 +54903,7 @@
         <v>1</v>
       </c>
       <c r="G1046" s="92" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1047" spans="1:7">
@@ -54834,7 +54926,7 @@
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1048" spans="1:7">
@@ -54845,19 +54937,19 @@
         <v>432</v>
       </c>
       <c r="C1048" s="8" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="D1048" s="8" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E1048" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="8" t="s">
         <v>2265</v>
-      </c>
-      <c r="E1048" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1048" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1048" s="8" t="s">
-        <v>2266</v>
       </c>
     </row>
     <row r="1049" spans="1:7">
@@ -54880,7 +54972,7 @@
         <v>1</v>
       </c>
       <c r="G1049" s="92" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1050" spans="1:7">
@@ -54904,6 +54996,98 @@
       </c>
       <c r="G1050" s="92" t="s">
         <v>2223</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7">
+      <c r="A1051" s="7">
+        <v>1050</v>
+      </c>
+      <c r="B1051" s="8">
+        <v>435</v>
+      </c>
+      <c r="C1051" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1051" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1051" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1051" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1051" s="92" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7">
+      <c r="A1052" s="7">
+        <v>1051</v>
+      </c>
+      <c r="B1052" s="8">
+        <v>435</v>
+      </c>
+      <c r="C1052" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1052" s="91">
+        <v>4</v>
+      </c>
+      <c r="E1052" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1052" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1052" s="92" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7">
+      <c r="A1053" s="7">
+        <v>1052</v>
+      </c>
+      <c r="B1053" s="8">
+        <v>436</v>
+      </c>
+      <c r="C1053" s="92" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D1053" s="92" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E1053" s="91">
+        <v>5</v>
+      </c>
+      <c r="F1053" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1053" s="92" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7">
+      <c r="A1054" s="7">
+        <v>1053</v>
+      </c>
+      <c r="B1054" s="8">
+        <v>436</v>
+      </c>
+      <c r="C1054" s="92" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D1054" s="91">
+        <v>3</v>
+      </c>
+      <c r="E1054" s="91">
+        <v>3</v>
+      </c>
+      <c r="F1054" s="91">
+        <v>1</v>
+      </c>
+      <c r="G1054" s="92" t="s">
+        <v>2287</v>
       </c>
     </row>
   </sheetData>
@@ -55237,7 +55421,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
@@ -55352,7 +55536,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>

--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -9867,10 +9867,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>cpl_notcjj</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -9891,10 +9887,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>关闭累计赢金榜（cjj和捕鱼奥秘）</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10056,10 +10048,6 @@
   </si>
   <si>
     <t>3dby_cpl</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -10592,6 +10580,18 @@
   </si>
   <si>
     <t>now</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"byam","xiaomi_byam","yyb_byam","byam_xianwan",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -15432,7 +15432,7 @@
         <v>1856</v>
       </c>
       <c r="B356" s="26" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="C356" s="2">
         <v>343</v>
@@ -15594,7 +15594,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="26" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="B383" s="26" t="s">
         <v>1711</v>
@@ -16282,10 +16282,10 @@
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="26" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="B473" s="26" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="C473" s="2">
         <v>410</v>
@@ -16293,10 +16293,10 @@
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="2" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="C475" s="2">
         <v>23</v>
@@ -16304,10 +16304,10 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="26" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="B477" s="26" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="C477" s="2">
         <v>411</v>
@@ -16315,10 +16315,10 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="26" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B478" s="26" t="s">
         <v>2162</v>
-      </c>
-      <c r="B478" s="26" t="s">
-        <v>2164</v>
       </c>
       <c r="C478" s="2">
         <v>412</v>
@@ -16326,10 +16326,10 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="2" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="C480" s="2">
         <v>417</v>
@@ -16337,10 +16337,10 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="2" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="C483" s="2">
         <v>432</v>
@@ -16348,10 +16348,10 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486" s="2" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="C486" s="2">
         <v>433</v>
@@ -16359,10 +16359,10 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487" s="2" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="C487" s="2">
         <v>434</v>
@@ -16380,7 +16380,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="I372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -27671,7 +27671,7 @@
         <v>1821</v>
       </c>
       <c r="D334" s="15" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="E334" s="16"/>
       <c r="F334" s="16"/>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C361" s="107" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D361" s="15" t="s">
         <v>2052</v>
@@ -28940,10 +28940,10 @@
         <v>1</v>
       </c>
       <c r="C372" s="57" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="D372" s="65" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="E372" s="64"/>
       <c r="F372" s="64"/>
@@ -28974,7 +28974,7 @@
         <v>1</v>
       </c>
       <c r="C373" s="57" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D373" s="65" t="s">
         <v>2063</v>
@@ -29074,7 +29074,7 @@
         <v>1</v>
       </c>
       <c r="C376" s="15" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>2127</v>
@@ -29176,10 +29176,10 @@
         <v>1</v>
       </c>
       <c r="C379" s="29" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D379" s="29" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="G379" s="25">
         <v>413</v>
@@ -29197,7 +29197,7 @@
         <v>1617638400</v>
       </c>
       <c r="L379" s="29" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="380" spans="1:12">
@@ -29208,10 +29208,10 @@
         <v>1</v>
       </c>
       <c r="C380" s="29" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D380" s="29" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="G380" s="25">
         <v>414</v>
@@ -29229,7 +29229,7 @@
         <v>1617638400</v>
       </c>
       <c r="L380" s="29" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -29240,10 +29240,10 @@
         <v>1</v>
       </c>
       <c r="C381" s="29" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D381" s="29" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="G381" s="25">
         <v>415</v>
@@ -29261,7 +29261,7 @@
         <v>1617638400</v>
       </c>
       <c r="L381" s="29" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="382" spans="1:12">
@@ -29272,10 +29272,10 @@
         <v>1</v>
       </c>
       <c r="C382" s="29" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="D382" s="29" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="G382" s="25">
         <v>416</v>
@@ -29293,7 +29293,7 @@
         <v>1617638400</v>
       </c>
       <c r="L382" s="29" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="383" spans="1:12" s="112" customFormat="1">
@@ -29304,10 +29304,10 @@
         <v>1</v>
       </c>
       <c r="C383" s="109" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="D383" s="109" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="E383" s="110"/>
       <c r="F383" s="110"/>
@@ -29327,7 +29327,7 @@
         <v>1618243200</v>
       </c>
       <c r="L383" s="109" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="384" spans="1:12" s="112" customFormat="1">
@@ -29338,10 +29338,10 @@
         <v>1</v>
       </c>
       <c r="C384" s="109" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="D384" s="109" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="E384" s="110"/>
       <c r="F384" s="110"/>
@@ -29361,7 +29361,7 @@
         <v>1618243200</v>
       </c>
       <c r="L384" s="109" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="385" spans="1:12" s="112" customFormat="1">
@@ -29372,10 +29372,10 @@
         <v>1</v>
       </c>
       <c r="C385" s="109" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="D385" s="109" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="E385" s="110"/>
       <c r="F385" s="110"/>
@@ -29395,7 +29395,7 @@
         <v>1618243200</v>
       </c>
       <c r="L385" s="109" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="386" spans="1:12" s="112" customFormat="1">
@@ -29406,10 +29406,10 @@
         <v>1</v>
       </c>
       <c r="C386" s="109" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="D386" s="109" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="E386" s="110"/>
       <c r="F386" s="110"/>
@@ -29429,7 +29429,7 @@
         <v>1618243200</v>
       </c>
       <c r="L386" s="109" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="387" spans="1:12" s="112" customFormat="1">
@@ -29440,10 +29440,10 @@
         <v>1</v>
       </c>
       <c r="C387" s="110" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="D387" s="110" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="E387" s="110"/>
       <c r="F387" s="110"/>
@@ -29463,7 +29463,7 @@
         <v>1618243200</v>
       </c>
       <c r="L387" s="109" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="388" spans="1:12" s="112" customFormat="1">
@@ -29474,10 +29474,10 @@
         <v>1</v>
       </c>
       <c r="C388" s="110" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="D388" s="110" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="E388" s="110"/>
       <c r="F388" s="110"/>
@@ -29497,7 +29497,7 @@
         <v>1618272000</v>
       </c>
       <c r="L388" s="110" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="389" spans="1:12" s="112" customFormat="1">
@@ -29508,10 +29508,10 @@
         <v>1</v>
       </c>
       <c r="C389" s="109" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="D389" s="109" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="E389" s="110"/>
       <c r="F389" s="110"/>
@@ -29531,7 +29531,7 @@
         <v>1618243200</v>
       </c>
       <c r="L389" s="109" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="390" spans="1:12" s="112" customFormat="1">
@@ -29542,10 +29542,10 @@
         <v>1</v>
       </c>
       <c r="C390" s="109" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="D390" s="109" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
       <c r="E390" s="110"/>
       <c r="F390" s="110"/>
@@ -29559,13 +29559,13 @@
         <v>1</v>
       </c>
       <c r="J390" s="109" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="K390" s="110">
         <v>1618243200</v>
       </c>
       <c r="L390" s="109" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="391" spans="1:12" s="116" customFormat="1">
@@ -29576,10 +29576,10 @@
         <v>1</v>
       </c>
       <c r="C391" s="114" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="D391" s="114" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="E391" s="113"/>
       <c r="F391" s="113"/>
@@ -29593,13 +29593,13 @@
         <v>1</v>
       </c>
       <c r="J391" s="114" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="K391" s="113">
         <v>1618272000</v>
       </c>
       <c r="L391" s="114" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="392" spans="1:12" s="116" customFormat="1">
@@ -29610,10 +29610,10 @@
         <v>1</v>
       </c>
       <c r="C392" s="113" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="D392" s="113" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="E392" s="113"/>
       <c r="F392" s="113"/>
@@ -29633,7 +29633,7 @@
         <v>1618272000</v>
       </c>
       <c r="L392" s="114" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="393" spans="1:12" s="112" customFormat="1">
@@ -29644,10 +29644,10 @@
         <v>1</v>
       </c>
       <c r="C393" s="109" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="D393" s="109" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="E393" s="110"/>
       <c r="F393" s="110"/>
@@ -29661,13 +29661,13 @@
         <v>1</v>
       </c>
       <c r="J393" s="109" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="K393" s="110">
         <v>1618243200</v>
       </c>
       <c r="L393" s="109" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="394" spans="1:12" s="112" customFormat="1">
@@ -29678,10 +29678,10 @@
         <v>1</v>
       </c>
       <c r="C394" s="109" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="D394" s="109" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="E394" s="110"/>
       <c r="F394" s="110"/>
@@ -29695,13 +29695,13 @@
         <v>1</v>
       </c>
       <c r="J394" s="109" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="K394" s="110">
         <v>1618243200</v>
       </c>
       <c r="L394" s="109" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="395" spans="1:12" s="112" customFormat="1">
@@ -29712,10 +29712,10 @@
         <v>1</v>
       </c>
       <c r="C395" s="109" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="D395" s="109" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="E395" s="110"/>
       <c r="F395" s="110"/>
@@ -29735,7 +29735,7 @@
         <v>1618243200</v>
       </c>
       <c r="L395" s="109" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="396" spans="1:12" s="112" customFormat="1">
@@ -29746,10 +29746,10 @@
         <v>1</v>
       </c>
       <c r="C396" s="109" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="D396" s="109" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="E396" s="110"/>
       <c r="F396" s="110"/>
@@ -29769,7 +29769,7 @@
         <v>1618243200</v>
       </c>
       <c r="L396" s="109" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="397" spans="1:12" s="21" customFormat="1">
@@ -29780,10 +29780,10 @@
         <v>1</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="E397" s="16"/>
       <c r="F397" s="16"/>
@@ -29814,10 +29814,10 @@
         <v>1</v>
       </c>
       <c r="C398" s="25" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="D398" s="25" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="G398" s="25">
         <v>427</v>
@@ -29835,7 +29835,7 @@
         <v>1619452800</v>
       </c>
       <c r="L398" s="25" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -29846,10 +29846,10 @@
         <v>1</v>
       </c>
       <c r="C399" s="25" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D399" s="25" t="s">
         <v>2282</v>
-      </c>
-      <c r="D399" s="25" t="s">
-        <v>2285</v>
       </c>
       <c r="G399" s="25">
         <v>428</v>
@@ -29861,13 +29861,13 @@
         <v>1</v>
       </c>
       <c r="J399" s="25" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
       <c r="K399" s="25">
         <v>1619481600</v>
       </c>
       <c r="L399" s="109" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -29878,10 +29878,10 @@
         <v>1</v>
       </c>
       <c r="C400" s="25" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D400" s="25" t="s">
         <v>2283</v>
-      </c>
-      <c r="D400" s="25" t="s">
-        <v>2286</v>
       </c>
       <c r="G400" s="25">
         <v>429</v>
@@ -29893,13 +29893,13 @@
         <v>1</v>
       </c>
       <c r="J400" s="25" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="K400" s="25">
         <v>1619481600</v>
       </c>
       <c r="L400" s="109" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
     </row>
   </sheetData>
@@ -34083,7 +34083,7 @@
         <v>1032</v>
       </c>
       <c r="D179" s="79" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="E179" s="13">
         <v>2</v>
@@ -34138,7 +34138,7 @@
         <v>6</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="7" customFormat="1">
@@ -34152,7 +34152,7 @@
         <v>1032</v>
       </c>
       <c r="D182" s="79" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="E182" s="13">
         <v>2</v>
@@ -34161,7 +34161,7 @@
         <v>7</v>
       </c>
       <c r="G182" s="14" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="183" spans="1:9" s="7" customFormat="1">
@@ -34609,7 +34609,7 @@
         <v>1032</v>
       </c>
       <c r="D201" s="90" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="E201" s="88">
         <v>2</v>
@@ -49736,7 +49736,7 @@
         <v>1032</v>
       </c>
       <c r="D829" s="9" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E829" s="7">
         <v>2</v>
@@ -49745,7 +49745,7 @@
         <v>4</v>
       </c>
       <c r="G829" s="9" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="H829" s="7"/>
       <c r="I829" s="7"/>
@@ -50145,7 +50145,7 @@
         <v>1</v>
       </c>
       <c r="G845" s="92" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="H845" s="7"/>
       <c r="I845" s="7"/>
@@ -50236,7 +50236,7 @@
         <v>1032</v>
       </c>
       <c r="D849" s="14" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="E849" s="13">
         <v>5</v>
@@ -50551,7 +50551,7 @@
         <v>1</v>
       </c>
       <c r="G861" s="9" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="862" spans="1:9" s="7" customFormat="1">
@@ -50597,7 +50597,7 @@
         <v>2</v>
       </c>
       <c r="G863" s="9" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="H863" s="7"/>
       <c r="I863" s="7"/>
@@ -51007,7 +51007,7 @@
         <v>1140</v>
       </c>
       <c r="D880" s="9" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="E880" s="7">
         <v>2</v>
@@ -51053,7 +51053,7 @@
         <v>1140</v>
       </c>
       <c r="D882" s="9" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="E882" s="7">
         <v>5</v>
@@ -53790,7 +53790,7 @@
         <v>1140</v>
       </c>
       <c r="D998" s="8" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="E998" s="8">
         <v>2</v>
@@ -53799,7 +53799,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="48" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -53810,7 +53810,7 @@
         <v>411</v>
       </c>
       <c r="C999" s="48" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="D999" s="8">
         <v>0</v>
@@ -53822,7 +53822,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="48" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1000" spans="1:7">
@@ -53937,7 +53937,7 @@
         <v>1</v>
       </c>
       <c r="G1004" s="9" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1005" spans="1:7">
@@ -54006,7 +54006,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="9" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1008" spans="1:7">
@@ -54052,7 +54052,7 @@
         <v>1</v>
       </c>
       <c r="G1009" s="48" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -54075,7 +54075,7 @@
         <v>1</v>
       </c>
       <c r="G1010" s="9" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -54098,7 +54098,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="48" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -54121,7 +54121,7 @@
         <v>1</v>
       </c>
       <c r="G1012" s="48" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1013" spans="1:7">
@@ -54167,7 +54167,7 @@
         <v>1</v>
       </c>
       <c r="G1014" s="8" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
@@ -54213,7 +54213,7 @@
         <v>1</v>
       </c>
       <c r="G1016" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1017" spans="1:7">
@@ -54259,7 +54259,7 @@
         <v>2</v>
       </c>
       <c r="G1018" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1019" spans="1:7">
@@ -54305,7 +54305,7 @@
         <v>3</v>
       </c>
       <c r="G1020" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1021" spans="1:7">
@@ -54397,7 +54397,7 @@
         <v>1</v>
       </c>
       <c r="G1024" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1025" spans="1:7">
@@ -54466,7 +54466,7 @@
         <v>1</v>
       </c>
       <c r="G1027" s="92" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1028" spans="1:7">
@@ -54489,7 +54489,7 @@
         <v>1</v>
       </c>
       <c r="G1028" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1029" spans="1:7">
@@ -54535,7 +54535,7 @@
         <v>1</v>
       </c>
       <c r="G1030" s="92" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1031" spans="1:7">
@@ -54558,7 +54558,7 @@
         <v>1</v>
       </c>
       <c r="G1031" s="92" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1032" spans="1:7">
@@ -54581,7 +54581,7 @@
         <v>1</v>
       </c>
       <c r="G1032" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -54604,7 +54604,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -54627,7 +54627,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
@@ -54650,7 +54650,7 @@
         <v>1</v>
       </c>
       <c r="G1035" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -54673,7 +54673,7 @@
         <v>1</v>
       </c>
       <c r="G1036" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1037" spans="1:7">
@@ -54696,7 +54696,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="92" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -54719,7 +54719,7 @@
         <v>1</v>
       </c>
       <c r="G1038" s="96" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1039" spans="1:7">
@@ -54742,7 +54742,7 @@
         <v>1</v>
       </c>
       <c r="G1039" s="96" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1040" spans="1:7">
@@ -54753,7 +54753,7 @@
         <v>428</v>
       </c>
       <c r="C1040" s="92" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D1040" s="91">
         <v>3</v>
@@ -54765,7 +54765,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="92" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1041" spans="1:7">
@@ -54788,7 +54788,7 @@
         <v>1</v>
       </c>
       <c r="G1041" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1042" spans="1:7">
@@ -54799,7 +54799,7 @@
         <v>429</v>
       </c>
       <c r="C1042" s="92" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D1042" s="91">
         <v>4</v>
@@ -54811,7 +54811,7 @@
         <v>1</v>
       </c>
       <c r="G1042" s="92" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1043" spans="1:7">
@@ -54834,7 +54834,7 @@
         <v>1</v>
       </c>
       <c r="G1043" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1044" spans="1:7">
@@ -54845,7 +54845,7 @@
         <v>430</v>
       </c>
       <c r="C1044" s="92" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D1044" s="91">
         <v>3</v>
@@ -54857,7 +54857,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1045" spans="1:7">
@@ -54880,7 +54880,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="92" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1046" spans="1:7">
@@ -54891,7 +54891,7 @@
         <v>431</v>
       </c>
       <c r="C1046" s="92" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="D1046" s="91">
         <v>4</v>
@@ -54903,7 +54903,7 @@
         <v>1</v>
       </c>
       <c r="G1046" s="92" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1047" spans="1:7">
@@ -54926,7 +54926,7 @@
         <v>1</v>
       </c>
       <c r="G1047" s="92" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1048" spans="1:7">
@@ -54937,19 +54937,19 @@
         <v>432</v>
       </c>
       <c r="C1048" s="8" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D1048" s="8" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E1048" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1048" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1048" s="8" t="s">
         <v>2262</v>
-      </c>
-      <c r="D1048" s="8" t="s">
-        <v>2264</v>
-      </c>
-      <c r="E1048" s="8">
-        <v>2</v>
-      </c>
-      <c r="F1048" s="8">
-        <v>1</v>
-      </c>
-      <c r="G1048" s="8" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="1049" spans="1:7">
@@ -54972,7 +54972,7 @@
         <v>1</v>
       </c>
       <c r="G1049" s="92" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1050" spans="1:7">
@@ -54995,7 +54995,7 @@
         <v>1</v>
       </c>
       <c r="G1050" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1051" spans="1:7">
@@ -55018,7 +55018,7 @@
         <v>1</v>
       </c>
       <c r="G1051" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1052" spans="1:7">
@@ -55041,7 +55041,7 @@
         <v>1</v>
       </c>
       <c r="G1052" s="92" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1053" spans="1:7">
@@ -55064,7 +55064,7 @@
         <v>1</v>
       </c>
       <c r="G1053" s="92" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1054" spans="1:7">
@@ -55087,7 +55087,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="92" t="s">
-        <v>2287</v>
+        <v>2284</v>
       </c>
     </row>
   </sheetData>
@@ -55102,8 +55102,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55137,7 +55137,7 @@
         <v>1033</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -55145,13 +55145,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -55191,7 +55191,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>884</v>
@@ -55220,7 +55220,7 @@
         <v>884</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -55237,13 +55237,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>2187</v>
+        <v>2289</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -55252,7 +55252,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -55266,7 +55266,7 @@
         <v>1065</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -55275,7 +55275,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -55283,13 +55283,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -55298,7 +55298,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -55321,7 +55321,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -55329,13 +55329,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -55344,7 +55344,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -55352,7 +55352,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>884</v>
@@ -55367,7 +55367,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -55390,7 +55390,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -55398,13 +55398,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -55421,13 +55421,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>2145</v>
+        <v>2288</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -55450,7 +55450,7 @@
         <v>884</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>2139</v>
+        <v>2287</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -55467,13 +55467,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -55482,7 +55482,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -55490,22 +55490,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="63" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>2202</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>2204</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>2205</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -55513,13 +55513,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -55528,7 +55528,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -55536,13 +55536,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>884</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -55551,7 +55551,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
     </row>
   </sheetData>

--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5339" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5346" uniqueCount="2297">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10592,6 +10592,34 @@
   </si>
   <si>
     <t>"pceggs","xianwan","pdd","duoliang","zhuanke91","doudouqu","paopaozhuan","mtzd","juxiang","xiaozhuo","aibianxian","juju","qwxq","byam_xianwan","byam_pceggs","byam_aibianxian","byam_juxiang",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_crary_rebate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利（天天欢乐捕鱼和捕鱼奥秘官方渠道）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_condition</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_official</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>天天欢乐捕鱼和捕鱼奥秘官方渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16378,13 +16406,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:O400"/>
+  <dimension ref="A1:O401"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I372" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="G387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L399" sqref="L399:L400"/>
+      <selection pane="bottomRight" activeCell="L401" sqref="L401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29902,6 +29930,38 @@
         <v>2233</v>
       </c>
     </row>
+    <row r="401" spans="1:12">
+      <c r="A401" s="25">
+        <v>400</v>
+      </c>
+      <c r="B401" s="25">
+        <v>1</v>
+      </c>
+      <c r="C401" s="29" t="s">
+        <v>2290</v>
+      </c>
+      <c r="D401" s="29" t="s">
+        <v>2291</v>
+      </c>
+      <c r="G401" s="25">
+        <v>437</v>
+      </c>
+      <c r="H401" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I401" t="b">
+        <v>1</v>
+      </c>
+      <c r="J401" s="29" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K401" s="25">
+        <v>1619452800</v>
+      </c>
+      <c r="L401" s="29" t="s">
+        <v>2296</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N224"/>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -29913,13 +29973,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1054"/>
+  <dimension ref="A1:I1055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1024" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1056" sqref="C1056"/>
+      <selection pane="bottomRight" activeCell="B1055" sqref="B1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55052,7 +55112,7 @@
         <v>436</v>
       </c>
       <c r="C1053" s="92" t="s">
-        <v>1140</v>
+        <v>2292</v>
       </c>
       <c r="D1053" s="92" t="s">
         <v>1884</v>
@@ -55088,6 +55148,29 @@
       </c>
       <c r="G1054" s="92" t="s">
         <v>2284</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7">
+      <c r="A1055" s="8">
+        <v>1054</v>
+      </c>
+      <c r="B1055" s="8">
+        <v>437</v>
+      </c>
+      <c r="C1055" s="48" t="s">
+        <v>2293</v>
+      </c>
+      <c r="D1055" s="48" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E1055" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1055" s="8">
+        <v>1</v>
+      </c>
+      <c r="G1055" s="48" t="s">
+        <v>2295</v>
       </c>
     </row>
   </sheetData>
@@ -55102,8 +55185,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5346" uniqueCount="2297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5356" uniqueCount="2305">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10620,6 +10620,38 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>tthlby_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是欢乐捕鱼渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>byam_all</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是捕鱼奥秘渠道</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_hlby_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐捕鱼游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>drt_byam_little_game_discount</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼奥秘游戏打折</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11475,11 +11507,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q487"/>
+  <dimension ref="A1:Q489"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D492" sqref="D491:D492"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C412" sqref="C412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15840,61 +15872,61 @@
         <v>326</v>
       </c>
     </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="2" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C410" s="2">
+        <v>438</v>
+      </c>
+    </row>
     <row r="411" spans="1:3">
-      <c r="A411" s="30" t="s">
+      <c r="A411" s="2" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C411" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="30" t="s">
         <v>1829</v>
       </c>
-      <c r="B411" s="9" t="s">
+      <c r="B413" s="9" t="s">
         <v>1830</v>
-      </c>
-      <c r="C411" s="8"/>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="17" t="s">
-        <v>1831</v>
-      </c>
-      <c r="B412" s="9" t="s">
-        <v>1832</v>
-      </c>
-      <c r="C412" s="8"/>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="A413" s="17" t="s">
-        <v>1833</v>
-      </c>
-      <c r="B413" s="9" t="s">
-        <v>1834</v>
       </c>
       <c r="C413" s="8"/>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="17" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>1836</v>
-      </c>
-      <c r="C414" s="52">
-        <v>22</v>
-      </c>
+        <v>1832</v>
+      </c>
+      <c r="C414" s="8"/>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="17" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>1838</v>
-      </c>
-      <c r="C415" s="52">
-        <v>22</v>
-      </c>
+        <v>1834</v>
+      </c>
+      <c r="C415" s="8"/>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="17" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="C416" s="52">
         <v>22</v>
@@ -15902,497 +15934,519 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="17" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="C417" s="52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="17" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="C418" s="52">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="17" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>1846</v>
-      </c>
-      <c r="C419" s="8">
-        <v>24</v>
+        <v>1842</v>
+      </c>
+      <c r="C419" s="52">
+        <v>23</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="17" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>1848</v>
-      </c>
-      <c r="C420" s="8">
-        <v>25</v>
+        <v>1844</v>
+      </c>
+      <c r="C420" s="52">
+        <v>23</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="17" t="s">
-        <v>1849</v>
+        <v>1845</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="C421" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="17" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C422" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="17" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="C423" s="8">
         <v>26</v>
       </c>
     </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="17" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B424" s="9" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C424" s="8">
+        <v>26</v>
+      </c>
+    </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="26" t="s">
-        <v>1857</v>
-      </c>
-      <c r="B425" s="26" t="s">
-        <v>1858</v>
-      </c>
-      <c r="C425" s="2">
-        <v>342</v>
+      <c r="A425" s="17" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B425" s="9" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C425" s="8">
+        <v>26</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="26" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B427" s="26" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C427" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="26" t="s">
         <v>1914</v>
       </c>
-      <c r="B427" s="26" t="s">
+      <c r="B429" s="26" t="s">
         <v>1909</v>
       </c>
-      <c r="C427" s="2">
+      <c r="C429" s="2">
         <v>344</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" s="26" t="s">
-        <v>1910</v>
-      </c>
-      <c r="B428" s="26" t="s">
-        <v>1911</v>
-      </c>
-      <c r="C428" s="2">
-        <v>345</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="26" t="s">
-        <v>1895</v>
+        <v>1910</v>
       </c>
       <c r="B430" s="26" t="s">
-        <v>1883</v>
+        <v>1911</v>
       </c>
       <c r="C430" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="26" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B432" s="26" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C432" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="26" t="s">
         <v>1898</v>
       </c>
-      <c r="B432" s="26" t="s">
+      <c r="B434" s="26" t="s">
         <v>1897</v>
       </c>
-      <c r="C432" s="2">
+      <c r="C434" s="2">
         <v>347</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
-      <c r="A433" s="26" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B433" s="26" t="s">
-        <v>1900</v>
-      </c>
-      <c r="C433" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="26" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B435" s="26" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C435" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="26" t="s">
         <v>1915</v>
       </c>
-      <c r="B435" s="26" t="s">
+      <c r="B437" s="26" t="s">
         <v>1916</v>
       </c>
-      <c r="C435" s="2">
+      <c r="C437" s="2">
         <v>351</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
-      <c r="A436" s="26" t="s">
-        <v>1917</v>
-      </c>
-      <c r="B436" s="26" t="s">
-        <v>1918</v>
-      </c>
-      <c r="C436" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="26" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B438" s="26" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C438" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="26" t="s">
         <v>1926</v>
       </c>
-      <c r="B438" s="26" t="s">
+      <c r="B440" s="26" t="s">
         <v>1927</v>
       </c>
-      <c r="C438" s="2">
+      <c r="C440" s="2">
         <v>353</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="2" t="s">
+    <row r="442" spans="1:3">
+      <c r="A442" s="2" t="s">
         <v>1990</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B442" s="2" t="s">
         <v>1992</v>
       </c>
-      <c r="C440" s="2">
+      <c r="C442" s="2">
         <v>354</v>
       </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="A442" s="26" t="s">
-        <v>1935</v>
-      </c>
-      <c r="B442" s="26" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C442" s="2">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="A443" s="26"/>
-      <c r="B443" s="26"/>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="26" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B444" s="26" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C444" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="26"/>
+      <c r="B445" s="26"/>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="26" t="s">
         <v>1963</v>
       </c>
-      <c r="B444" s="26" t="s">
+      <c r="B446" s="26" t="s">
         <v>1964</v>
       </c>
-      <c r="C444" s="2">
+      <c r="C446" s="2">
         <v>368</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="71" t="s">
+    <row r="448" spans="1:3">
+      <c r="A448" s="71" t="s">
         <v>1969</v>
       </c>
-      <c r="B446" s="26" t="s">
+      <c r="B448" s="26" t="s">
         <v>1970</v>
       </c>
-      <c r="C446" s="2">
+      <c r="C448" s="2">
         <v>356</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
-      <c r="A447" s="71" t="s">
+    <row r="449" spans="1:3">
+      <c r="A449" s="71" t="s">
         <v>1971</v>
       </c>
-      <c r="B447" s="26" t="s">
+      <c r="B449" s="26" t="s">
         <v>1972</v>
       </c>
-      <c r="C447" s="2">
+      <c r="C449" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="2" t="s">
+    <row r="451" spans="1:3">
+      <c r="A451" s="2" t="s">
         <v>1976</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B451" s="2" t="s">
         <v>1973</v>
       </c>
-      <c r="C449" s="2">
+      <c r="C451" s="2">
         <v>369</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
-      <c r="A451" s="26" t="s">
-        <v>1987</v>
-      </c>
-      <c r="B451" s="26" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C451" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="26" t="s">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="B453" s="26" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="C453" s="2">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="A454" s="26" t="s">
-        <v>2001</v>
-      </c>
-      <c r="B454" s="26" t="s">
-        <v>1995</v>
-      </c>
-      <c r="C454" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="26" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="B455" s="26" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="C455" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="26" t="s">
-        <v>1991</v>
+        <v>2001</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="C456" s="2">
-        <v>378</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="26" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B457" s="26" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C457" s="2">
+        <v>377</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="26" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B458" s="26" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C458" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="26" t="s">
         <v>2003</v>
       </c>
-      <c r="B458" s="26" t="s">
+      <c r="B460" s="26" t="s">
         <v>2004</v>
       </c>
-      <c r="C458" s="2">
+      <c r="C460" s="2">
         <v>379</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
-      <c r="A460" s="2" t="s">
+    <row r="462" spans="1:3">
+      <c r="A462" s="2" t="s">
         <v>2018</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B462" s="2" t="s">
         <v>2019</v>
       </c>
-      <c r="C460" s="2">
+      <c r="C462" s="2">
         <v>381</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
-      <c r="A462" s="26" t="s">
+    <row r="464" spans="1:3">
+      <c r="A464" s="26" t="s">
         <v>2030</v>
       </c>
-      <c r="B462" s="26" t="s">
+      <c r="B464" s="26" t="s">
         <v>2031</v>
       </c>
-      <c r="C462" s="2">
+      <c r="C464" s="2">
         <v>385</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="26" t="s">
+    <row r="465" spans="1:3">
+      <c r="A465" s="26" t="s">
         <v>2032</v>
       </c>
-      <c r="B463" s="26" t="s">
+      <c r="B465" s="26" t="s">
         <v>2033</v>
       </c>
-      <c r="C463" s="2">
+      <c r="C465" s="2">
         <v>386</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="2" t="s">
-        <v>2068</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="2" t="s">
-        <v>2069</v>
-      </c>
-      <c r="B466" s="26" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C466" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="2" t="s">
-        <v>2070</v>
-      </c>
-      <c r="B467" s="26" t="s">
-        <v>2074</v>
-      </c>
-      <c r="C467" s="2">
-        <v>23</v>
+        <v>2068</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>2073</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="2" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="B468" s="26" t="s">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="C468" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="2" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="B469" s="26" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="C469" s="2">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B470" s="26" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C470" s="2">
+        <v>24</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B471" s="26" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C471" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="2" t="s">
         <v>2120</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B473" s="2" t="s">
         <v>2121</v>
       </c>
-      <c r="C471" s="2">
+      <c r="C473" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="26" t="s">
+    <row r="475" spans="1:3">
+      <c r="A475" s="26" t="s">
         <v>2266</v>
       </c>
-      <c r="B473" s="26" t="s">
+      <c r="B475" s="26" t="s">
         <v>2265</v>
       </c>
-      <c r="C473" s="2">
+      <c r="C475" s="2">
         <v>410</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="2" t="s">
+    <row r="477" spans="1:3">
+      <c r="A477" s="2" t="s">
         <v>2149</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B477" s="2" t="s">
         <v>2148</v>
       </c>
-      <c r="C475" s="2">
+      <c r="C477" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
-      <c r="A477" s="26" t="s">
+    <row r="479" spans="1:3">
+      <c r="A479" s="26" t="s">
         <v>2165</v>
       </c>
-      <c r="B477" s="26" t="s">
+      <c r="B479" s="26" t="s">
         <v>2161</v>
       </c>
-      <c r="C477" s="2">
+      <c r="C479" s="2">
         <v>411</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
-      <c r="A478" s="26" t="s">
+    <row r="480" spans="1:3">
+      <c r="A480" s="26" t="s">
         <v>2160</v>
       </c>
-      <c r="B478" s="26" t="s">
+      <c r="B480" s="26" t="s">
         <v>2162</v>
       </c>
-      <c r="C478" s="2">
+      <c r="C480" s="2">
         <v>412</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="2" t="s">
+    <row r="482" spans="1:3">
+      <c r="A482" s="2" t="s">
         <v>2176</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B482" s="2" t="s">
         <v>2177</v>
       </c>
-      <c r="C480" s="2">
+      <c r="C482" s="2">
         <v>417</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
-      <c r="A483" s="2" t="s">
+    <row r="485" spans="1:3">
+      <c r="A485" s="2" t="s">
         <v>2263</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B485" s="2" t="s">
         <v>2258</v>
       </c>
-      <c r="C483" s="2">
+      <c r="C485" s="2">
         <v>432</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="2" t="s">
+    <row r="488" spans="1:3">
+      <c r="A488" s="2" t="s">
         <v>2269</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B488" s="2" t="s">
         <v>2267</v>
       </c>
-      <c r="C486" s="2">
+      <c r="C488" s="2">
         <v>433</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
-      <c r="A487" s="2" t="s">
+    <row r="489" spans="1:3">
+      <c r="A489" s="2" t="s">
         <v>2270</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B489" s="2" t="s">
         <v>2268</v>
       </c>
-      <c r="C487" s="2">
+      <c r="C489" s="2">
         <v>434</v>
       </c>
     </row>
@@ -16408,7 +16462,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:O401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="G387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -29973,13 +30027,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I1055"/>
+  <dimension ref="A1:I1057"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1024" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1055" sqref="B1055"/>
+      <selection pane="bottomRight" activeCell="B1057" sqref="B1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54828,7 +54882,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="1041" spans="1:7">
+    <row r="1041" spans="1:9">
       <c r="A1041" s="7">
         <v>1040</v>
       </c>
@@ -54851,7 +54905,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1042" spans="1:7">
+    <row r="1042" spans="1:9">
       <c r="A1042" s="7">
         <v>1041</v>
       </c>
@@ -54874,7 +54928,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="1043" spans="1:7">
+    <row r="1043" spans="1:9">
       <c r="A1043" s="7">
         <v>1042</v>
       </c>
@@ -54897,7 +54951,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1044" spans="1:7">
+    <row r="1044" spans="1:9">
       <c r="A1044" s="7">
         <v>1043</v>
       </c>
@@ -54920,7 +54974,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="1045" spans="1:7">
+    <row r="1045" spans="1:9">
       <c r="A1045" s="7">
         <v>1044</v>
       </c>
@@ -54943,7 +54997,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="1046" spans="1:7">
+    <row r="1046" spans="1:9">
       <c r="A1046" s="7">
         <v>1045</v>
       </c>
@@ -54966,7 +55020,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="1047" spans="1:7">
+    <row r="1047" spans="1:9">
       <c r="A1047" s="7">
         <v>1046</v>
       </c>
@@ -54989,7 +55043,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="1048" spans="1:7">
+    <row r="1048" spans="1:9">
       <c r="A1048" s="7">
         <v>1047</v>
       </c>
@@ -55012,7 +55066,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="1049" spans="1:7">
+    <row r="1049" spans="1:9">
       <c r="A1049" s="7">
         <v>1048</v>
       </c>
@@ -55035,7 +55089,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="1050" spans="1:7">
+    <row r="1050" spans="1:9">
       <c r="A1050" s="7">
         <v>1049</v>
       </c>
@@ -55058,7 +55112,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1051" spans="1:7">
+    <row r="1051" spans="1:9">
       <c r="A1051" s="7">
         <v>1050</v>
       </c>
@@ -55081,7 +55135,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1052" spans="1:7">
+    <row r="1052" spans="1:9">
       <c r="A1052" s="7">
         <v>1051</v>
       </c>
@@ -55104,7 +55158,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="1053" spans="1:7">
+    <row r="1053" spans="1:9">
       <c r="A1053" s="7">
         <v>1052</v>
       </c>
@@ -55127,7 +55181,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1054" spans="1:7">
+    <row r="1054" spans="1:9">
       <c r="A1054" s="7">
         <v>1053</v>
       </c>
@@ -55150,7 +55204,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="1055" spans="1:7">
+    <row r="1055" spans="1:9">
       <c r="A1055" s="8">
         <v>1054</v>
       </c>
@@ -55172,6 +55226,56 @@
       <c r="G1055" s="48" t="s">
         <v>2295</v>
       </c>
+    </row>
+    <row r="1056" spans="1:9">
+      <c r="A1056" s="8">
+        <v>1055</v>
+      </c>
+      <c r="B1056" s="8">
+        <v>438</v>
+      </c>
+      <c r="C1056" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1056" s="8" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E1056" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1056" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1056" s="8" t="s">
+        <v>2298</v>
+      </c>
+      <c r="H1056" s="7"/>
+      <c r="I1056" s="7"/>
+    </row>
+    <row r="1057" spans="1:9">
+      <c r="A1057" s="8">
+        <v>1056</v>
+      </c>
+      <c r="B1057" s="8">
+        <v>439</v>
+      </c>
+      <c r="C1057" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1057" s="8" t="s">
+        <v>2299</v>
+      </c>
+      <c r="E1057" s="8">
+        <v>2</v>
+      </c>
+      <c r="F1057" s="7">
+        <v>1</v>
+      </c>
+      <c r="G1057" s="8" t="s">
+        <v>2300</v>
+      </c>
+      <c r="H1057" s="7"/>
+      <c r="I1057" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -11509,7 +11509,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A391" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C412" sqref="C412"/>
     </sheetView>
@@ -16463,10 +16463,10 @@
   <dimension ref="A1:O401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G387" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="E387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L401" sqref="L401"/>
+      <selection pane="bottomRight" activeCell="G400" sqref="G400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29934,7 +29934,7 @@
         <v>2282</v>
       </c>
       <c r="G399" s="25">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H399" s="25" t="b">
         <v>1</v>
@@ -29966,7 +29966,7 @@
         <v>2283</v>
       </c>
       <c r="G400" s="25">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H400" s="25" t="b">
         <v>1</v>
@@ -30029,11 +30029,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I1057"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1057" sqref="B1057"/>
+      <selection pane="bottomRight" activeCell="D1063" sqref="D1063"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -30030,10 +30030,10 @@
   <dimension ref="A1:I1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1033" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1063" sqref="D1063"/>
+      <selection pane="bottomRight" activeCell="E1044" sqref="E1044"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54965,13 +54965,13 @@
         <v>3</v>
       </c>
       <c r="E1044" s="91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1044" s="91">
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2254</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1045" spans="1:9">

--- a/config_4.27/permission_server_config.xlsx
+++ b/config_4.27/permission_server_config.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5356" uniqueCount="2305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8163" uniqueCount="2306">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10652,6 +10652,10 @@
   </si>
   <si>
     <t>捕鱼奥秘游戏打折</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP3及以下玩家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -16463,10 +16467,10 @@
   <dimension ref="A1:O401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E387" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D387" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G400" sqref="G400"/>
+      <selection pane="bottomRight" activeCell="G399" sqref="G399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -30030,10 +30034,10 @@
   <dimension ref="A1:I1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D1033" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E1033" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E1044" sqref="E1044"/>
+      <selection pane="bottomRight" activeCell="G1040" sqref="G1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54873,13 +54877,13 @@
         <v>3</v>
       </c>
       <c r="E1040" s="91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1040" s="91">
         <v>1</v>
       </c>
       <c r="G1040" s="92" t="s">
-        <v>2254</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1041" spans="1:9">
@@ -54965,13 +54969,13 @@
         <v>3</v>
       </c>
       <c r="E1044" s="91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1044" s="91">
         <v>1</v>
       </c>
       <c r="G1044" s="92" t="s">
-        <v>2284</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1045" spans="1:9">
